--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\Graphs\Projet_Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB5D74-EC19-4EFE-B518-CCDFEB99AA88}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395626A-AA83-460A-A9A7-9C957F793EAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{44870F9C-FEA3-4FB6-B98A-A10278059C58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{44870F9C-FEA3-4FB6-B98A-A10278059C58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="temps d'executions comparées" sheetId="1" r:id="rId1"/>
     <sheet name="Greedy" sheetId="2" r:id="rId2"/>
     <sheet name="WP" sheetId="3" r:id="rId3"/>
     <sheet name="DSATUR" sheetId="4" r:id="rId4"/>
+    <sheet name="comparaison nb couleurs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,54 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>nb Sommet \ nbAretes</t>
-  </si>
-  <si>
-    <t>605.723415</t>
-  </si>
-  <si>
-    <t>269.598313</t>
-  </si>
-  <si>
-    <t>220.094728</t>
-  </si>
-  <si>
-    <t>178.718349</t>
-  </si>
-  <si>
-    <t>220.630826</t>
-  </si>
-  <si>
-    <t>146.894559</t>
-  </si>
-  <si>
-    <t>145.256634</t>
-  </si>
-  <si>
-    <t>130.350171</t>
-  </si>
-  <si>
-    <t>147.368633</t>
-  </si>
-  <si>
-    <t>119.085385</t>
-  </si>
-  <si>
-    <t>128.700394</t>
-  </si>
-  <si>
-    <t>127.345727</t>
-  </si>
-  <si>
-    <t>114.27235</t>
-  </si>
-  <si>
-    <t>99.659812</t>
-  </si>
-  <si>
-    <t>147.615547</t>
   </si>
   <si>
     <t>greedy</t>
@@ -91,6 +47,18 @@
   </si>
   <si>
     <t>Welsh-Powell</t>
+  </si>
+  <si>
+    <t>nombre de sommets: 2000</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>nombre de sommets: 200</t>
+  </si>
+  <si>
+    <t>nombre de sommets: 50</t>
   </si>
 </sst>
 </file>
@@ -244,7 +212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$5</c:f>
+              <c:f>'temps d''executions comparées'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -265,7 +233,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$16</c:f>
+              <c:f>'temps d''executions comparées'!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -307,7 +275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$6:$C$16</c:f>
+              <c:f>'temps d''executions comparées'!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -358,7 +326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$5</c:f>
+              <c:f>'temps d''executions comparées'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -379,7 +347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$16</c:f>
+              <c:f>'temps d''executions comparées'!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -421,7 +389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$6:$D$16</c:f>
+              <c:f>'temps d''executions comparées'!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -472,7 +440,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$5</c:f>
+              <c:f>'temps d''executions comparées'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +461,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$16</c:f>
+              <c:f>'temps d''executions comparées'!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -535,7 +503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$6:$E$16</c:f>
+              <c:f>'temps d''executions comparées'!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -931,6 +899,1502 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>temps d'executions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> selon les 3 algorithmes et le nombre d'aretes.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>nombre de sommets: 2000</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$C$30:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B53-4396-B610-C23F648A1DE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Welsh-Powell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$D$30:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B53-4396-B610-C23F648A1DE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSATUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$E$30:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B53-4396-B610-C23F648A1DE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="708500608"/>
+        <c:axId val="708500936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708500608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>nombre d'aretes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (en pourcentage du nombre d'aretes maximum)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708500936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708500936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> d'execution [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708500608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>temps d'executions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> selon les 3 algorithmes et le nombre d'aretes.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>nombre de sommets: 200</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$C$58:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7CE-4EC8-9B29-B7B756953976}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$D$58:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7CE-4EC8-9B29-B7B756953976}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps d''executions comparées'!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSATUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$B$30:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'temps d''executions comparées'!$E$58:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7CE-4EC8-9B29-B7B756953976}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="708500608"/>
+        <c:axId val="708500936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708500608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>nombre d'aretes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (en pourcentage du nombre d'aretes maximum)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708500936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708500936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> d'execution [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708500608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -1610,7 +3074,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1881,7 +3344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2901,7 +4364,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3937,6 +5400,1719 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0B-4657-AF5E-3B7D1F60D367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0B-4657-AF5E-3B7D1F60D367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSATUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D0B-4657-AF5E-3B7D1F60D367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661945872"/>
+        <c:axId val="661943248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661945872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661943248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661943248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661945872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$B$22:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-468C-4E47-BF3B-D851A902143C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$C$22:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-468C-4E47-BF3B-D851A902143C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSATUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$D$22:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-468C-4E47-BF3B-D851A902143C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661945872"/>
+        <c:axId val="661943248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661945872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661943248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661943248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661945872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$B$38:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D64B-4704-BFF9-E3FD8DCB6A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$C$38:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D64B-4704-BFF9-E3FD8DCB6A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparaison nb couleurs'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSATUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparaison nb couleurs'!$D$38:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D64B-4704-BFF9-E3FD8DCB6A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661945872"/>
+        <c:axId val="661943248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661945872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661943248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661943248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661945872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4097,6 +7273,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4601,6 +7977,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5116,7 +9498,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5632,7 +10014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6129,6 +10511,1515 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6181,6 +12072,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E71379-78B8-41E6-8EE5-3ACC7FCCA05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFA0F09-00D0-42E0-8DDF-B1E19DBA09D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6304,6 +12271,123 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654CB63B-AB19-43B9-B07E-92DFBD222239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7653E7D9-BE1F-42B4-9DAD-06D449E72AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BFAEE7-1561-466C-ADB3-D0A417EB4001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6612,7 +12696,7 @@
   <dimension ref="B4:G184"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B6" sqref="B6:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,7 +12710,7 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
@@ -6636,16 +12720,16 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6826,448 +12910,670 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1">
+        <v>71</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>118</v>
+      </c>
+      <c r="D32" s="1">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1">
+        <v>156</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>205</v>
+      </c>
+      <c r="D33" s="1">
+        <v>191</v>
+      </c>
+      <c r="E33" s="1">
+        <v>189</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>321</v>
+      </c>
+      <c r="D34" s="1">
+        <v>335</v>
+      </c>
+      <c r="E34" s="1">
+        <v>345</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>503</v>
+      </c>
+      <c r="D35" s="1">
+        <v>548</v>
+      </c>
+      <c r="E35" s="1">
+        <v>490</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>836</v>
+      </c>
+      <c r="D36" s="1">
+        <v>829</v>
+      </c>
+      <c r="E36" s="1">
+        <v>806</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1318</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1489</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2035</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1962</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2081</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3510</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3406</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3366</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>22646</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13278</v>
+      </c>
+      <c r="E40" s="1">
+        <v>13383</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>40</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>50</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>70</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>100</v>
+      </c>
+      <c r="C68" s="2">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1">
+        <v>25</v>
+      </c>
+      <c r="E68" s="1">
+        <v>16</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -9517,7 +15823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9635E86-D867-4B5A-83BB-A342D648E11B}">
   <dimension ref="B3:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -10263,4 +16569,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0AC8CE-71E5-42E2-8D78-EBE0470AF064}">
+  <dimension ref="A2:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="B13">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B24">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B25">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>121</v>
+      </c>
+      <c r="C27">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B28">
+        <v>155</v>
+      </c>
+      <c r="C28">
+        <v>155</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B29">
+        <v>189</v>
+      </c>
+      <c r="C29">
+        <v>189</v>
+      </c>
+      <c r="D29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B30">
+        <v>236</v>
+      </c>
+      <c r="C30">
+        <v>236</v>
+      </c>
+      <c r="D30">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="B31">
+        <v>306</v>
+      </c>
+      <c r="C31">
+        <v>306</v>
+      </c>
+      <c r="D31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>